--- a/Unity_ET_FrameWork/ET-Branch_V5.0/Excel/defendMonster.xlsx
+++ b/Unity_ET_FrameWork/ET-Branch_V5.0/Excel/defendMonster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\Unity_ET_FrameWork\ET-Branch_V5.0\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE4641-3B8B-453B-B6A1-197C0DE2D106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6674E40-42BB-4F5F-9236-57822D01082B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="1740" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defendMonster" sheetId="1" r:id="rId1"/>
@@ -76,607 +76,608 @@
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
   <si>
+    <t>13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002</t>
+  </si>
+  <si>
+    <t>13000003;13000003;13000003;13000003;13010001</t>
+  </si>
+  <si>
+    <t>13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004</t>
+  </si>
+  <si>
+    <t>13000005;13000005;13000005;13000005;13010002</t>
+  </si>
+  <si>
+    <t>13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006</t>
+  </si>
+  <si>
+    <t>13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007</t>
+  </si>
+  <si>
+    <t>13000008;13000008;13000008;13000008;13010003</t>
+  </si>
+  <si>
+    <t>13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009</t>
+  </si>
+  <si>
+    <t>13000010;13000010;13000010;13000010;13020001</t>
+  </si>
+  <si>
+    <t>13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011</t>
+  </si>
+  <si>
+    <t>13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012</t>
+  </si>
+  <si>
+    <t>13000013;13000013;13000013;13000013;13010004</t>
+  </si>
+  <si>
+    <t>13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014</t>
+  </si>
+  <si>
+    <t>13000015;13000015;13000015;13000015;13010005</t>
+  </si>
+  <si>
+    <t>13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016</t>
+  </si>
+  <si>
+    <t>13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017</t>
+  </si>
+  <si>
+    <t>13000018;13000018;13000018;13000018;13010006</t>
+  </si>
+  <si>
+    <t>13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019</t>
+  </si>
+  <si>
+    <t>13000020;13000020;13000020;13000020;13020002</t>
+  </si>
+  <si>
+    <t>13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021</t>
+  </si>
+  <si>
+    <t>13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022</t>
+  </si>
+  <si>
+    <t>13000023;13000023;13000023;13000023;13010007</t>
+  </si>
+  <si>
+    <t>13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024</t>
+  </si>
+  <si>
+    <t>13000025;13000025;13000025;13000025;13010008</t>
+  </si>
+  <si>
+    <t>13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026</t>
+  </si>
+  <si>
+    <t>13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027</t>
+  </si>
+  <si>
+    <t>13000028;13000028;13000028;13000028;13010009</t>
+  </si>
+  <si>
+    <t>13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029</t>
+  </si>
+  <si>
+    <t>13000030;13000030;13000030;13000030;13020003</t>
+  </si>
+  <si>
+    <t>13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031</t>
+  </si>
+  <si>
+    <t>13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032</t>
+  </si>
+  <si>
+    <t>13000033;13000033;13000033;13000033;13010010</t>
+  </si>
+  <si>
+    <t>13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034</t>
+  </si>
+  <si>
+    <t>13000035;13000035;13000035;13000035;13010011</t>
+  </si>
+  <si>
+    <t>13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036</t>
+  </si>
+  <si>
+    <t>13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037</t>
+  </si>
+  <si>
+    <t>13000038;13000038;13000038;13000038;13010012</t>
+  </si>
+  <si>
+    <t>13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039</t>
+  </si>
+  <si>
+    <t>13000040;13000040;13000040;13000040;13020004</t>
+  </si>
+  <si>
+    <t>13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041</t>
+  </si>
+  <si>
+    <t>13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042</t>
+  </si>
+  <si>
+    <t>13000043;13000043;13000043;13000043;13010013</t>
+  </si>
+  <si>
+    <t>13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044</t>
+  </si>
+  <si>
+    <t>13000045;13000045;13000045;13000045;13010014</t>
+  </si>
+  <si>
+    <t>13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046</t>
+  </si>
+  <si>
+    <t>13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047</t>
+  </si>
+  <si>
+    <t>13000048;13000048;13000048;13000048;13010015</t>
+  </si>
+  <si>
+    <t>13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049</t>
+  </si>
+  <si>
+    <t>13000050;13000050;13000050;13000050;13020005</t>
+  </si>
+  <si>
+    <t>13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051</t>
+  </si>
+  <si>
+    <t>13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052</t>
+  </si>
+  <si>
+    <t>13000053;13000053;13000053;13000053;13010016</t>
+  </si>
+  <si>
+    <t>13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054</t>
+  </si>
+  <si>
+    <t>13000055;13000055;13000055;13000055;13010017</t>
+  </si>
+  <si>
+    <t>13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056</t>
+  </si>
+  <si>
+    <t>13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057</t>
+  </si>
+  <si>
+    <t>13000058;13000058;13000058;13000058;13010018</t>
+  </si>
+  <si>
+    <t>13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059</t>
+  </si>
+  <si>
+    <t>13000060;13000060;13000060;13000060;13020006</t>
+  </si>
+  <si>
+    <t>13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061</t>
+  </si>
+  <si>
+    <t>13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062</t>
+  </si>
+  <si>
+    <t>13000063;13000063;13000063;13000063;13010019</t>
+  </si>
+  <si>
+    <t>13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064</t>
+  </si>
+  <si>
+    <t>13000065;13000065;13000065;13000065;13010020</t>
+  </si>
+  <si>
+    <t>13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066</t>
+  </si>
+  <si>
+    <t>13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067</t>
+  </si>
+  <si>
+    <t>13000068;13000068;13000068;13000068;13010021</t>
+  </si>
+  <si>
+    <t>13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069</t>
+  </si>
+  <si>
+    <t>13000070;13000070;13000070;13000070;13020007</t>
+  </si>
+  <si>
+    <t>13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071</t>
+  </si>
+  <si>
+    <t>13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072</t>
+  </si>
+  <si>
+    <t>13000073;13000073;13000073;13000073;13010022</t>
+  </si>
+  <si>
+    <t>13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074</t>
+  </si>
+  <si>
+    <t>13000075;13000075;13000075;13000075;13010023</t>
+  </si>
+  <si>
+    <t>13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076</t>
+  </si>
+  <si>
+    <t>13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077</t>
+  </si>
+  <si>
+    <t>13000078;13000078;13000078;13000078;13010024</t>
+  </si>
+  <si>
+    <t>13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079</t>
+  </si>
+  <si>
+    <t>13000080;13000080;13000080;13000080;13020008</t>
+  </si>
+  <si>
+    <t>13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081</t>
+  </si>
+  <si>
+    <t>13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082</t>
+  </si>
+  <si>
+    <t>13000083;13000083;13000083;13000083;13010025</t>
+  </si>
+  <si>
+    <t>13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084</t>
+  </si>
+  <si>
+    <t>13000085;13000085;13000085;13000085;13010026</t>
+  </si>
+  <si>
+    <t>13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086</t>
+  </si>
+  <si>
+    <t>13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087</t>
+  </si>
+  <si>
+    <t>13000088;13000088;13000088;13000088;13010027</t>
+  </si>
+  <si>
+    <t>13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089</t>
+  </si>
+  <si>
+    <t>13000090;13000090;13000090;13000090;13020009</t>
+  </si>
+  <si>
+    <t>13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091</t>
+  </si>
+  <si>
+    <t>13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092</t>
+  </si>
+  <si>
+    <t>13000093;13000093;13000093;13000093;13010028</t>
+  </si>
+  <si>
+    <t>13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094</t>
+  </si>
+  <si>
+    <t>13000095;13000095;13000095;13000095;13010029</t>
+  </si>
+  <si>
+    <t>13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096</t>
+  </si>
+  <si>
+    <t>13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097</t>
+  </si>
+  <si>
+    <t>13000098;13000098;13000098;13000098;13010030</t>
+  </si>
+  <si>
+    <t>13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099</t>
+  </si>
+  <si>
+    <t>13000100;13000100;13000100;13000100;13020010</t>
+  </si>
+  <si>
+    <t>13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101</t>
+  </si>
+  <si>
+    <t>13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102</t>
+  </si>
+  <si>
+    <t>13000103;13000103;13000103;13000103;13010031</t>
+  </si>
+  <si>
+    <t>13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104</t>
+  </si>
+  <si>
+    <t>13000105;13000105;13000105;13000105;13010032</t>
+  </si>
+  <si>
+    <t>13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106</t>
+  </si>
+  <si>
+    <t>13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107</t>
+  </si>
+  <si>
+    <t>13000108;13000108;13000108;13000108;13010033</t>
+  </si>
+  <si>
+    <t>13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109</t>
+  </si>
+  <si>
+    <t>13000110;13000110;13000110;13000110;13020011</t>
+  </si>
+  <si>
+    <t>13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111</t>
+  </si>
+  <si>
+    <t>13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112</t>
+  </si>
+  <si>
+    <t>13000113;13000113;13000113;13000113;13010034</t>
+  </si>
+  <si>
+    <t>13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114</t>
+  </si>
+  <si>
+    <t>13000115;13000115;13000115;13000115;13010035</t>
+  </si>
+  <si>
+    <t>13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116</t>
+  </si>
+  <si>
+    <t>13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117</t>
+  </si>
+  <si>
+    <t>13000118;13000118;13000118;13000118;13010036</t>
+  </si>
+  <si>
+    <t>13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119</t>
+  </si>
+  <si>
+    <t>13000120;13000120;13000120;13000120;13020012</t>
+  </si>
+  <si>
+    <t>13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121</t>
+  </si>
+  <si>
+    <t>13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122</t>
+  </si>
+  <si>
+    <t>13000123;13000123;13000123;13000123;13010037</t>
+  </si>
+  <si>
+    <t>13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124</t>
+  </si>
+  <si>
+    <t>13000125;13000125;13000125;13000125;13010038</t>
+  </si>
+  <si>
+    <t>13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126</t>
+  </si>
+  <si>
+    <t>13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127</t>
+  </si>
+  <si>
+    <t>13000128;13000128;13000128;13000128;13010039</t>
+  </si>
+  <si>
+    <t>13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129</t>
+  </si>
+  <si>
+    <t>13000130;13000130;13000130;13000130;13020013</t>
+  </si>
+  <si>
+    <t>13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131</t>
+  </si>
+  <si>
+    <t>13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132</t>
+  </si>
+  <si>
+    <t>13000133;13000133;13000133;13000133;13010040</t>
+  </si>
+  <si>
+    <t>13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134</t>
+  </si>
+  <si>
+    <t>13000135;13000135;13000135;13000135;13010041</t>
+  </si>
+  <si>
+    <t>13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136</t>
+  </si>
+  <si>
+    <t>13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137</t>
+  </si>
+  <si>
+    <t>13000138;13000138;13000138;13000138;13010042</t>
+  </si>
+  <si>
+    <t>13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139</t>
+  </si>
+  <si>
+    <t>13000140;13000140;13000140;13000140;13020014</t>
+  </si>
+  <si>
+    <t>13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141</t>
+  </si>
+  <si>
+    <t>13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142</t>
+  </si>
+  <si>
+    <t>13000143;13000143;13000143;13000143;13010043</t>
+  </si>
+  <si>
+    <t>13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144</t>
+  </si>
+  <si>
+    <t>13000145;13000145;13000145;13000145;13010044</t>
+  </si>
+  <si>
+    <t>13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146</t>
+  </si>
+  <si>
+    <t>13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147</t>
+  </si>
+  <si>
+    <t>13000148;13000148;13000148;13000148;13010045</t>
+  </si>
+  <si>
+    <t>13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149</t>
+  </si>
+  <si>
+    <t>13000150;13000150;13000150;13000150;13020015</t>
+  </si>
+  <si>
+    <t>13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151</t>
+  </si>
+  <si>
+    <t>13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152</t>
+  </si>
+  <si>
+    <t>13000153;13000153;13000153;13000153;13010046</t>
+  </si>
+  <si>
+    <t>13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154</t>
+  </si>
+  <si>
+    <t>13000155;13000155;13000155;13000155;13010047</t>
+  </si>
+  <si>
+    <t>13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156</t>
+  </si>
+  <si>
+    <t>13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157</t>
+  </si>
+  <si>
+    <t>13000158;13000158;13000158;13000158;13010048</t>
+  </si>
+  <si>
+    <t>13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159</t>
+  </si>
+  <si>
+    <t>13000160;13000160;13000160;13000160;13020016</t>
+  </si>
+  <si>
+    <t>13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161</t>
+  </si>
+  <si>
+    <t>13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162</t>
+  </si>
+  <si>
+    <t>13000163;13000163;13000163;13000163;13010049</t>
+  </si>
+  <si>
+    <t>13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164</t>
+  </si>
+  <si>
+    <t>13000165;13000165;13000165;13000165;13010050</t>
+  </si>
+  <si>
+    <t>13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166</t>
+  </si>
+  <si>
+    <t>13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167</t>
+  </si>
+  <si>
+    <t>13000168;13000168;13000168;13000168;13010051</t>
+  </si>
+  <si>
+    <t>13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169</t>
+  </si>
+  <si>
+    <t>13000170;13000170;13000170;13000170;13020017</t>
+  </si>
+  <si>
+    <t>13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171</t>
+  </si>
+  <si>
+    <t>13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172</t>
+  </si>
+  <si>
+    <t>13000173;13000173;13000173;13000173;13010052</t>
+  </si>
+  <si>
+    <t>13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174</t>
+  </si>
+  <si>
+    <t>13000175;13000175;13000175;13000175;13010053</t>
+  </si>
+  <si>
+    <t>13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176</t>
+  </si>
+  <si>
+    <t>13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177</t>
+  </si>
+  <si>
+    <t>13000178;13000178;13000178;13000178;13010054</t>
+  </si>
+  <si>
+    <t>13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179</t>
+  </si>
+  <si>
+    <t>13000180;13000180;13000180;13000180;13020018</t>
+  </si>
+  <si>
+    <t>13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181</t>
+  </si>
+  <si>
+    <t>13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182</t>
+  </si>
+  <si>
+    <t>13000183;13000183;13000183;13000183;13010055</t>
+  </si>
+  <si>
+    <t>13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184</t>
+  </si>
+  <si>
+    <t>13000185;13000185;13000185;13000185;13010056</t>
+  </si>
+  <si>
+    <t>13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186</t>
+  </si>
+  <si>
+    <t>13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187</t>
+  </si>
+  <si>
+    <t>13000188;13000188;13000188;13000188;13010057</t>
+  </si>
+  <si>
+    <t>13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189</t>
+  </si>
+  <si>
+    <t>13000190;13000190;13000190;13000190;13020019</t>
+  </si>
+  <si>
+    <t>13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191</t>
+  </si>
+  <si>
+    <t>13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192</t>
+  </si>
+  <si>
+    <t>13000193;13000193;13000193;13000193;13010058</t>
+  </si>
+  <si>
+    <t>13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194</t>
+  </si>
+  <si>
+    <t>13000195;13000195;13000195;13000195;13010059</t>
+  </si>
+  <si>
+    <t>13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196</t>
+  </si>
+  <si>
+    <t>13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197</t>
+  </si>
+  <si>
+    <t>13000198;13000198;13000198;13000198;13010060</t>
+  </si>
+  <si>
+    <t>13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199</t>
+  </si>
+  <si>
+    <t>13000200;13000200;13000200;13000200;13020020</t>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001;13000001</t>
-  </si>
-  <si>
-    <t>13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002;13000002</t>
-  </si>
-  <si>
-    <t>13000003;13000003;13000003;13000003;13010001</t>
-  </si>
-  <si>
-    <t>13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004;13000004</t>
-  </si>
-  <si>
-    <t>13000005;13000005;13000005;13000005;13010002</t>
-  </si>
-  <si>
-    <t>13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006;13000006</t>
-  </si>
-  <si>
-    <t>13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007;13000007</t>
-  </si>
-  <si>
-    <t>13000008;13000008;13000008;13000008;13010003</t>
-  </si>
-  <si>
-    <t>13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009;13000009</t>
-  </si>
-  <si>
-    <t>13000010;13000010;13000010;13000010;13020001</t>
-  </si>
-  <si>
-    <t>13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011;13000011</t>
-  </si>
-  <si>
-    <t>13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012;13000012</t>
-  </si>
-  <si>
-    <t>13000013;13000013;13000013;13000013;13010004</t>
-  </si>
-  <si>
-    <t>13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014;13000014</t>
-  </si>
-  <si>
-    <t>13000015;13000015;13000015;13000015;13010005</t>
-  </si>
-  <si>
-    <t>13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016;13000016</t>
-  </si>
-  <si>
-    <t>13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017;13000017</t>
-  </si>
-  <si>
-    <t>13000018;13000018;13000018;13000018;13010006</t>
-  </si>
-  <si>
-    <t>13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019;13000019</t>
-  </si>
-  <si>
-    <t>13000020;13000020;13000020;13000020;13020002</t>
-  </si>
-  <si>
-    <t>13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021;13000021</t>
-  </si>
-  <si>
-    <t>13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022;13000022</t>
-  </si>
-  <si>
-    <t>13000023;13000023;13000023;13000023;13010007</t>
-  </si>
-  <si>
-    <t>13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024;13000024</t>
-  </si>
-  <si>
-    <t>13000025;13000025;13000025;13000025;13010008</t>
-  </si>
-  <si>
-    <t>13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026;13000026</t>
-  </si>
-  <si>
-    <t>13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027;13000027</t>
-  </si>
-  <si>
-    <t>13000028;13000028;13000028;13000028;13010009</t>
-  </si>
-  <si>
-    <t>13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029;13000029</t>
-  </si>
-  <si>
-    <t>13000030;13000030;13000030;13000030;13020003</t>
-  </si>
-  <si>
-    <t>13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031;13000031</t>
-  </si>
-  <si>
-    <t>13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032;13000032</t>
-  </si>
-  <si>
-    <t>13000033;13000033;13000033;13000033;13010010</t>
-  </si>
-  <si>
-    <t>13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034;13000034</t>
-  </si>
-  <si>
-    <t>13000035;13000035;13000035;13000035;13010011</t>
-  </si>
-  <si>
-    <t>13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036;13000036</t>
-  </si>
-  <si>
-    <t>13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037;13000037</t>
-  </si>
-  <si>
-    <t>13000038;13000038;13000038;13000038;13010012</t>
-  </si>
-  <si>
-    <t>13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039;13000039</t>
-  </si>
-  <si>
-    <t>13000040;13000040;13000040;13000040;13020004</t>
-  </si>
-  <si>
-    <t>13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041;13000041</t>
-  </si>
-  <si>
-    <t>13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042;13000042</t>
-  </si>
-  <si>
-    <t>13000043;13000043;13000043;13000043;13010013</t>
-  </si>
-  <si>
-    <t>13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044;13000044</t>
-  </si>
-  <si>
-    <t>13000045;13000045;13000045;13000045;13010014</t>
-  </si>
-  <si>
-    <t>13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046;13000046</t>
-  </si>
-  <si>
-    <t>13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047;13000047</t>
-  </si>
-  <si>
-    <t>13000048;13000048;13000048;13000048;13010015</t>
-  </si>
-  <si>
-    <t>13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049;13000049</t>
-  </si>
-  <si>
-    <t>13000050;13000050;13000050;13000050;13020005</t>
-  </si>
-  <si>
-    <t>13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051;13000051</t>
-  </si>
-  <si>
-    <t>13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052;13000052</t>
-  </si>
-  <si>
-    <t>13000053;13000053;13000053;13000053;13010016</t>
-  </si>
-  <si>
-    <t>13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054;13000054</t>
-  </si>
-  <si>
-    <t>13000055;13000055;13000055;13000055;13010017</t>
-  </si>
-  <si>
-    <t>13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056;13000056</t>
-  </si>
-  <si>
-    <t>13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057;13000057</t>
-  </si>
-  <si>
-    <t>13000058;13000058;13000058;13000058;13010018</t>
-  </si>
-  <si>
-    <t>13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059;13000059</t>
-  </si>
-  <si>
-    <t>13000060;13000060;13000060;13000060;13020006</t>
-  </si>
-  <si>
-    <t>13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061;13000061</t>
-  </si>
-  <si>
-    <t>13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062;13000062</t>
-  </si>
-  <si>
-    <t>13000063;13000063;13000063;13000063;13010019</t>
-  </si>
-  <si>
-    <t>13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064;13000064</t>
-  </si>
-  <si>
-    <t>13000065;13000065;13000065;13000065;13010020</t>
-  </si>
-  <si>
-    <t>13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066;13000066</t>
-  </si>
-  <si>
-    <t>13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067;13000067</t>
-  </si>
-  <si>
-    <t>13000068;13000068;13000068;13000068;13010021</t>
-  </si>
-  <si>
-    <t>13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069;13000069</t>
-  </si>
-  <si>
-    <t>13000070;13000070;13000070;13000070;13020007</t>
-  </si>
-  <si>
-    <t>13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071;13000071</t>
-  </si>
-  <si>
-    <t>13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072;13000072</t>
-  </si>
-  <si>
-    <t>13000073;13000073;13000073;13000073;13010022</t>
-  </si>
-  <si>
-    <t>13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074;13000074</t>
-  </si>
-  <si>
-    <t>13000075;13000075;13000075;13000075;13010023</t>
-  </si>
-  <si>
-    <t>13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076;13000076</t>
-  </si>
-  <si>
-    <t>13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077;13000077</t>
-  </si>
-  <si>
-    <t>13000078;13000078;13000078;13000078;13010024</t>
-  </si>
-  <si>
-    <t>13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079;13000079</t>
-  </si>
-  <si>
-    <t>13000080;13000080;13000080;13000080;13020008</t>
-  </si>
-  <si>
-    <t>13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081;13000081</t>
-  </si>
-  <si>
-    <t>13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082;13000082</t>
-  </si>
-  <si>
-    <t>13000083;13000083;13000083;13000083;13010025</t>
-  </si>
-  <si>
-    <t>13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084;13000084</t>
-  </si>
-  <si>
-    <t>13000085;13000085;13000085;13000085;13010026</t>
-  </si>
-  <si>
-    <t>13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086;13000086</t>
-  </si>
-  <si>
-    <t>13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087;13000087</t>
-  </si>
-  <si>
-    <t>13000088;13000088;13000088;13000088;13010027</t>
-  </si>
-  <si>
-    <t>13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089;13000089</t>
-  </si>
-  <si>
-    <t>13000090;13000090;13000090;13000090;13020009</t>
-  </si>
-  <si>
-    <t>13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091;13000091</t>
-  </si>
-  <si>
-    <t>13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092;13000092</t>
-  </si>
-  <si>
-    <t>13000093;13000093;13000093;13000093;13010028</t>
-  </si>
-  <si>
-    <t>13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094;13000094</t>
-  </si>
-  <si>
-    <t>13000095;13000095;13000095;13000095;13010029</t>
-  </si>
-  <si>
-    <t>13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096;13000096</t>
-  </si>
-  <si>
-    <t>13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097;13000097</t>
-  </si>
-  <si>
-    <t>13000098;13000098;13000098;13000098;13010030</t>
-  </si>
-  <si>
-    <t>13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099;13000099</t>
-  </si>
-  <si>
-    <t>13000100;13000100;13000100;13000100;13020010</t>
-  </si>
-  <si>
-    <t>13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101;13000101</t>
-  </si>
-  <si>
-    <t>13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102;13000102</t>
-  </si>
-  <si>
-    <t>13000103;13000103;13000103;13000103;13010031</t>
-  </si>
-  <si>
-    <t>13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104;13000104</t>
-  </si>
-  <si>
-    <t>13000105;13000105;13000105;13000105;13010032</t>
-  </si>
-  <si>
-    <t>13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106;13000106</t>
-  </si>
-  <si>
-    <t>13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107;13000107</t>
-  </si>
-  <si>
-    <t>13000108;13000108;13000108;13000108;13010033</t>
-  </si>
-  <si>
-    <t>13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109;13000109</t>
-  </si>
-  <si>
-    <t>13000110;13000110;13000110;13000110;13020011</t>
-  </si>
-  <si>
-    <t>13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111;13000111</t>
-  </si>
-  <si>
-    <t>13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112;13000112</t>
-  </si>
-  <si>
-    <t>13000113;13000113;13000113;13000113;13010034</t>
-  </si>
-  <si>
-    <t>13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114;13000114</t>
-  </si>
-  <si>
-    <t>13000115;13000115;13000115;13000115;13010035</t>
-  </si>
-  <si>
-    <t>13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116;13000116</t>
-  </si>
-  <si>
-    <t>13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117;13000117</t>
-  </si>
-  <si>
-    <t>13000118;13000118;13000118;13000118;13010036</t>
-  </si>
-  <si>
-    <t>13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119;13000119</t>
-  </si>
-  <si>
-    <t>13000120;13000120;13000120;13000120;13020012</t>
-  </si>
-  <si>
-    <t>13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121;13000121</t>
-  </si>
-  <si>
-    <t>13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122;13000122</t>
-  </si>
-  <si>
-    <t>13000123;13000123;13000123;13000123;13010037</t>
-  </si>
-  <si>
-    <t>13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124;13000124</t>
-  </si>
-  <si>
-    <t>13000125;13000125;13000125;13000125;13010038</t>
-  </si>
-  <si>
-    <t>13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126;13000126</t>
-  </si>
-  <si>
-    <t>13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127;13000127</t>
-  </si>
-  <si>
-    <t>13000128;13000128;13000128;13000128;13010039</t>
-  </si>
-  <si>
-    <t>13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129;13000129</t>
-  </si>
-  <si>
-    <t>13000130;13000130;13000130;13000130;13020013</t>
-  </si>
-  <si>
-    <t>13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131;13000131</t>
-  </si>
-  <si>
-    <t>13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132;13000132</t>
-  </si>
-  <si>
-    <t>13000133;13000133;13000133;13000133;13010040</t>
-  </si>
-  <si>
-    <t>13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134;13000134</t>
-  </si>
-  <si>
-    <t>13000135;13000135;13000135;13000135;13010041</t>
-  </si>
-  <si>
-    <t>13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136;13000136</t>
-  </si>
-  <si>
-    <t>13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137;13000137</t>
-  </si>
-  <si>
-    <t>13000138;13000138;13000138;13000138;13010042</t>
-  </si>
-  <si>
-    <t>13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139;13000139</t>
-  </si>
-  <si>
-    <t>13000140;13000140;13000140;13000140;13020014</t>
-  </si>
-  <si>
-    <t>13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141;13000141</t>
-  </si>
-  <si>
-    <t>13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142;13000142</t>
-  </si>
-  <si>
-    <t>13000143;13000143;13000143;13000143;13010043</t>
-  </si>
-  <si>
-    <t>13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144;13000144</t>
-  </si>
-  <si>
-    <t>13000145;13000145;13000145;13000145;13010044</t>
-  </si>
-  <si>
-    <t>13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146;13000146</t>
-  </si>
-  <si>
-    <t>13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147;13000147</t>
-  </si>
-  <si>
-    <t>13000148;13000148;13000148;13000148;13010045</t>
-  </si>
-  <si>
-    <t>13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149;13000149</t>
-  </si>
-  <si>
-    <t>13000150;13000150;13000150;13000150;13020015</t>
-  </si>
-  <si>
-    <t>13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151;13000151</t>
-  </si>
-  <si>
-    <t>13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152;13000152</t>
-  </si>
-  <si>
-    <t>13000153;13000153;13000153;13000153;13010046</t>
-  </si>
-  <si>
-    <t>13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154;13000154</t>
-  </si>
-  <si>
-    <t>13000155;13000155;13000155;13000155;13010047</t>
-  </si>
-  <si>
-    <t>13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156;13000156</t>
-  </si>
-  <si>
-    <t>13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157;13000157</t>
-  </si>
-  <si>
-    <t>13000158;13000158;13000158;13000158;13010048</t>
-  </si>
-  <si>
-    <t>13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159;13000159</t>
-  </si>
-  <si>
-    <t>13000160;13000160;13000160;13000160;13020016</t>
-  </si>
-  <si>
-    <t>13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161;13000161</t>
-  </si>
-  <si>
-    <t>13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162;13000162</t>
-  </si>
-  <si>
-    <t>13000163;13000163;13000163;13000163;13010049</t>
-  </si>
-  <si>
-    <t>13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164;13000164</t>
-  </si>
-  <si>
-    <t>13000165;13000165;13000165;13000165;13010050</t>
-  </si>
-  <si>
-    <t>13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166;13000166</t>
-  </si>
-  <si>
-    <t>13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167;13000167</t>
-  </si>
-  <si>
-    <t>13000168;13000168;13000168;13000168;13010051</t>
-  </si>
-  <si>
-    <t>13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169;13000169</t>
-  </si>
-  <si>
-    <t>13000170;13000170;13000170;13000170;13020017</t>
-  </si>
-  <si>
-    <t>13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171;13000171</t>
-  </si>
-  <si>
-    <t>13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172;13000172</t>
-  </si>
-  <si>
-    <t>13000173;13000173;13000173;13000173;13010052</t>
-  </si>
-  <si>
-    <t>13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174;13000174</t>
-  </si>
-  <si>
-    <t>13000175;13000175;13000175;13000175;13010053</t>
-  </si>
-  <si>
-    <t>13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176;13000176</t>
-  </si>
-  <si>
-    <t>13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177;13000177</t>
-  </si>
-  <si>
-    <t>13000178;13000178;13000178;13000178;13010054</t>
-  </si>
-  <si>
-    <t>13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179;13000179</t>
-  </si>
-  <si>
-    <t>13000180;13000180;13000180;13000180;13020018</t>
-  </si>
-  <si>
-    <t>13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181;13000181</t>
-  </si>
-  <si>
-    <t>13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182;13000182</t>
-  </si>
-  <si>
-    <t>13000183;13000183;13000183;13000183;13010055</t>
-  </si>
-  <si>
-    <t>13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184;13000184</t>
-  </si>
-  <si>
-    <t>13000185;13000185;13000185;13000185;13010056</t>
-  </si>
-  <si>
-    <t>13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186;13000186</t>
-  </si>
-  <si>
-    <t>13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187;13000187</t>
-  </si>
-  <si>
-    <t>13000188;13000188;13000188;13000188;13010057</t>
-  </si>
-  <si>
-    <t>13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189;13000189</t>
-  </si>
-  <si>
-    <t>13000190;13000190;13000190;13000190;13020019</t>
-  </si>
-  <si>
-    <t>13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191;13000191</t>
-  </si>
-  <si>
-    <t>13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192;13000192</t>
-  </si>
-  <si>
-    <t>13000193;13000193;13000193;13000193;13010058</t>
-  </si>
-  <si>
-    <t>13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194;13000194</t>
-  </si>
-  <si>
-    <t>13000195;13000195;13000195;13000195;13010059</t>
-  </si>
-  <si>
-    <t>13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196;13000196</t>
-  </si>
-  <si>
-    <t>13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197;13000197</t>
-  </si>
-  <si>
-    <t>13000198;13000198;13000198;13000198;13010060</t>
-  </si>
-  <si>
-    <t>13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199;13000199</t>
-  </si>
-  <si>
-    <t>13000200;13000200;13000200;13000200;13020020</t>
-  </si>
-  <si>
-    <t>_id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1649,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1674,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -1692,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1700,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1708,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1732,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1740,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1748,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1756,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1764,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,7 +1773,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -1780,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -1788,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -1796,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
@@ -1804,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
@@ -1812,7 +1813,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
@@ -1820,7 +1821,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
@@ -1828,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
@@ -1836,7 +1837,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
@@ -1844,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
@@ -1852,7 +1853,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
@@ -1860,7 +1861,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
@@ -1868,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
@@ -1876,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
@@ -1884,7 +1885,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
@@ -1892,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
@@ -1900,7 +1901,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
@@ -1908,7 +1909,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
@@ -1916,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
@@ -1924,7 +1925,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
@@ -1932,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
@@ -1940,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
@@ -1948,7 +1949,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
@@ -1956,7 +1957,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
@@ -1964,7 +1965,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
@@ -1972,7 +1973,7 @@
         <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
@@ -1980,7 +1981,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
@@ -1988,7 +1989,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
@@ -1996,7 +1997,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
@@ -2004,7 +2005,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2012,7 +2013,7 @@
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
@@ -2020,7 +2021,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
@@ -2028,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
@@ -2036,7 +2037,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
@@ -2044,7 +2045,7 @@
         <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
@@ -2052,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.2">
@@ -2060,7 +2061,7 @@
         <v>47</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.2">
@@ -2068,7 +2069,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
@@ -2076,7 +2077,7 @@
         <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.2">
@@ -2084,7 +2085,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
@@ -2092,7 +2093,7 @@
         <v>51</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.2">
@@ -2100,7 +2101,7 @@
         <v>52</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.2">
@@ -2108,7 +2109,7 @@
         <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.2">
@@ -2116,7 +2117,7 @@
         <v>54</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.2">
@@ -2124,7 +2125,7 @@
         <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.2">
@@ -2132,7 +2133,7 @@
         <v>56</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.2">
@@ -2140,7 +2141,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.2">
@@ -2148,7 +2149,7 @@
         <v>58</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.2">
@@ -2156,7 +2157,7 @@
         <v>59</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
@@ -2164,7 +2165,7 @@
         <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.2">
@@ -2172,7 +2173,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.2">
@@ -2180,7 +2181,7 @@
         <v>62</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.2">
@@ -2188,7 +2189,7 @@
         <v>63</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.2">
@@ -2196,7 +2197,7 @@
         <v>64</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
@@ -2204,7 +2205,7 @@
         <v>65</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
@@ -2212,7 +2213,7 @@
         <v>66</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
@@ -2220,7 +2221,7 @@
         <v>67</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
@@ -2228,7 +2229,7 @@
         <v>68</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
@@ -2236,7 +2237,7 @@
         <v>69</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.2">
@@ -2244,7 +2245,7 @@
         <v>70</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
@@ -2252,7 +2253,7 @@
         <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
@@ -2260,7 +2261,7 @@
         <v>72</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
@@ -2268,7 +2269,7 @@
         <v>73</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.2">
@@ -2276,7 +2277,7 @@
         <v>74</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.2">
@@ -2284,7 +2285,7 @@
         <v>75</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.2">
@@ -2292,7 +2293,7 @@
         <v>76</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.2">
@@ -2300,7 +2301,7 @@
         <v>77</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.2">
@@ -2308,7 +2309,7 @@
         <v>78</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.2">
@@ -2316,7 +2317,7 @@
         <v>79</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.2">
@@ -2324,7 +2325,7 @@
         <v>80</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
@@ -2332,7 +2333,7 @@
         <v>81</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.2">
@@ -2340,7 +2341,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.2">
@@ -2348,7 +2349,7 @@
         <v>83</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.2">
@@ -2356,7 +2357,7 @@
         <v>84</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.2">
@@ -2364,7 +2365,7 @@
         <v>85</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.2">
@@ -2372,7 +2373,7 @@
         <v>86</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.2">
@@ -2380,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.2">
@@ -2388,7 +2389,7 @@
         <v>88</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.2">
@@ -2396,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.2">
@@ -2404,7 +2405,7 @@
         <v>90</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.2">
@@ -2412,7 +2413,7 @@
         <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.2">
@@ -2420,7 +2421,7 @@
         <v>92</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.2">
@@ -2428,7 +2429,7 @@
         <v>93</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.2">
@@ -2436,7 +2437,7 @@
         <v>94</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.2">
@@ -2444,7 +2445,7 @@
         <v>95</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.2">
@@ -2452,7 +2453,7 @@
         <v>96</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.2">
@@ -2460,7 +2461,7 @@
         <v>97</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.2">
@@ -2468,7 +2469,7 @@
         <v>98</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.2">
@@ -2476,7 +2477,7 @@
         <v>99</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.2">
@@ -2484,7 +2485,7 @@
         <v>100</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.2">
@@ -2492,7 +2493,7 @@
         <v>101</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.2">
@@ -2500,7 +2501,7 @@
         <v>102</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.2">
@@ -2508,7 +2509,7 @@
         <v>103</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.2">
@@ -2516,7 +2517,7 @@
         <v>104</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.2">
@@ -2524,7 +2525,7 @@
         <v>105</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.2">
@@ -2532,7 +2533,7 @@
         <v>106</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.2">
@@ -2540,7 +2541,7 @@
         <v>107</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.2">
@@ -2548,7 +2549,7 @@
         <v>108</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.2">
@@ -2556,7 +2557,7 @@
         <v>109</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.2">
@@ -2564,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.2">
@@ -2572,7 +2573,7 @@
         <v>111</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.2">
@@ -2580,7 +2581,7 @@
         <v>112</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.2">
@@ -2588,7 +2589,7 @@
         <v>113</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.2">
@@ -2596,7 +2597,7 @@
         <v>114</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.2">
@@ -2604,7 +2605,7 @@
         <v>115</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.2">
@@ -2612,7 +2613,7 @@
         <v>116</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.2">
@@ -2620,7 +2621,7 @@
         <v>117</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.2">
@@ -2628,7 +2629,7 @@
         <v>118</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.2">
@@ -2636,7 +2637,7 @@
         <v>119</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.2">
@@ -2644,7 +2645,7 @@
         <v>120</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.2">
@@ -2652,7 +2653,7 @@
         <v>121</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.2">
@@ -2660,7 +2661,7 @@
         <v>122</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.2">
@@ -2668,7 +2669,7 @@
         <v>123</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.2">
@@ -2676,7 +2677,7 @@
         <v>124</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.2">
@@ -2684,7 +2685,7 @@
         <v>125</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.2">
@@ -2692,7 +2693,7 @@
         <v>126</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.2">
@@ -2700,7 +2701,7 @@
         <v>127</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.2">
@@ -2708,7 +2709,7 @@
         <v>128</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.2">
@@ -2716,7 +2717,7 @@
         <v>129</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.2">
@@ -2724,7 +2725,7 @@
         <v>130</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.2">
@@ -2732,7 +2733,7 @@
         <v>131</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.2">
@@ -2740,7 +2741,7 @@
         <v>132</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.2">
@@ -2748,7 +2749,7 @@
         <v>133</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.2">
@@ -2756,7 +2757,7 @@
         <v>134</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.2">
@@ -2764,7 +2765,7 @@
         <v>135</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.2">
@@ -2772,7 +2773,7 @@
         <v>136</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.2">
@@ -2780,7 +2781,7 @@
         <v>137</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.2">
@@ -2788,7 +2789,7 @@
         <v>138</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.2">
@@ -2796,7 +2797,7 @@
         <v>139</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.2">
@@ -2804,7 +2805,7 @@
         <v>140</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.2">
@@ -2812,7 +2813,7 @@
         <v>141</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.2">
@@ -2820,7 +2821,7 @@
         <v>142</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.2">
@@ -2828,7 +2829,7 @@
         <v>143</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.2">
@@ -2836,7 +2837,7 @@
         <v>144</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.2">
@@ -2844,7 +2845,7 @@
         <v>145</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.2">
@@ -2852,7 +2853,7 @@
         <v>146</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.2">
@@ -2860,7 +2861,7 @@
         <v>147</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.2">
@@ -2868,7 +2869,7 @@
         <v>148</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.2">
@@ -2876,7 +2877,7 @@
         <v>149</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.2">
@@ -2884,7 +2885,7 @@
         <v>150</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.2">
@@ -2892,7 +2893,7 @@
         <v>151</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.2">
@@ -2900,7 +2901,7 @@
         <v>152</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.2">
@@ -2908,7 +2909,7 @@
         <v>153</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.2">
@@ -2916,7 +2917,7 @@
         <v>154</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.2">
@@ -2924,7 +2925,7 @@
         <v>155</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.2">
@@ -2932,7 +2933,7 @@
         <v>156</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.2">
@@ -2940,7 +2941,7 @@
         <v>157</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.2">
@@ -2948,7 +2949,7 @@
         <v>158</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.2">
@@ -2956,7 +2957,7 @@
         <v>159</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.2">
@@ -2964,7 +2965,7 @@
         <v>160</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.2">
@@ -2972,7 +2973,7 @@
         <v>161</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.2">
@@ -2980,7 +2981,7 @@
         <v>162</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.2">
@@ -2988,7 +2989,7 @@
         <v>163</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.2">
@@ -2996,7 +2997,7 @@
         <v>164</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.2">
@@ -3004,7 +3005,7 @@
         <v>165</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.2">
@@ -3012,7 +3013,7 @@
         <v>166</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.2">
@@ -3020,7 +3021,7 @@
         <v>167</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.2">
@@ -3028,7 +3029,7 @@
         <v>168</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.2">
@@ -3036,7 +3037,7 @@
         <v>169</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.2">
@@ -3044,7 +3045,7 @@
         <v>170</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.2">
@@ -3052,7 +3053,7 @@
         <v>171</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
@@ -3060,7 +3061,7 @@
         <v>172</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
@@ -3068,7 +3069,7 @@
         <v>173</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
@@ -3076,7 +3077,7 @@
         <v>174</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
@@ -3084,7 +3085,7 @@
         <v>175</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.2">
@@ -3092,7 +3093,7 @@
         <v>176</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3101,7 @@
         <v>177</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
@@ -3108,7 +3109,7 @@
         <v>178</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.2">
@@ -3116,7 +3117,7 @@
         <v>179</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.2">
@@ -3124,7 +3125,7 @@
         <v>180</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.2">
@@ -3132,7 +3133,7 @@
         <v>181</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.2">
@@ -3140,7 +3141,7 @@
         <v>182</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.2">
@@ -3148,7 +3149,7 @@
         <v>183</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.2">
@@ -3156,7 +3157,7 @@
         <v>184</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.2">
@@ -3164,7 +3165,7 @@
         <v>185</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="3:4" x14ac:dyDescent="0.2">
@@ -3172,7 +3173,7 @@
         <v>186</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="3:4" x14ac:dyDescent="0.2">
@@ -3180,7 +3181,7 @@
         <v>187</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.2">
@@ -3188,7 +3189,7 @@
         <v>188</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.2">
@@ -3196,7 +3197,7 @@
         <v>189</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="3:4" x14ac:dyDescent="0.2">
@@ -3204,7 +3205,7 @@
         <v>190</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="3:4" x14ac:dyDescent="0.2">
@@ -3212,7 +3213,7 @@
         <v>191</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="3:4" x14ac:dyDescent="0.2">
@@ -3220,7 +3221,7 @@
         <v>192</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="3:4" x14ac:dyDescent="0.2">
@@ -3228,7 +3229,7 @@
         <v>193</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="3:4" x14ac:dyDescent="0.2">
@@ -3236,7 +3237,7 @@
         <v>194</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="3:4" x14ac:dyDescent="0.2">
@@ -3244,7 +3245,7 @@
         <v>195</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="3:4" x14ac:dyDescent="0.2">
@@ -3252,7 +3253,7 @@
         <v>196</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="3:4" x14ac:dyDescent="0.2">
@@ -3260,7 +3261,7 @@
         <v>197</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="3:4" x14ac:dyDescent="0.2">
@@ -3268,7 +3269,7 @@
         <v>198</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="3:4" x14ac:dyDescent="0.2">
@@ -3276,7 +3277,7 @@
         <v>199</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="3:4" x14ac:dyDescent="0.2">
@@ -3284,7 +3285,7 @@
         <v>200</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
